--- a/Summing Utilities/Summing Utils.xlsx
+++ b/Summing Utilities/Summing Utils.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/profmc/Library/CloudStorage/Dropbox/Lambda-Update-Project/Lambda-Development/In development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/profmc/Library/CloudStorage/Dropbox/Lambda-Update-Project/Lambda-Development/Summing Utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB04D5F-57C0-0548-818E-3FED0C404E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB51872D-0725-7C49-9C32-72092326881C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5140" yWindow="1800" windowWidth="33260" windowHeight="17440" xr2:uid="{D80B3487-635B-2E4E-BDFF-D2F369F38B28}"/>
   </bookViews>
@@ -490,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828C44E5-9F58-8B4E-A95E-195806A118F4}">
   <dimension ref="B1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C58" sqref="B1:C58"/>
     </sheetView>
   </sheetViews>
